--- a/data/raw/user_inputs_scenarios/user_inputs_step6_ccs.xlsx
+++ b/data/raw/user_inputs_scenarios/user_inputs_step6_ccs.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huo\Documents\GitHub\polyLOP\data\raw\user_inputs_scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65440B6F-252C-4B0B-833E-ACD32D3A882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,47 +103,47 @@
     <t>scenRCP1p9</t>
   </si>
   <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>cradle-to-gate+EoL</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>SSP2_SPA2_19I_D</t>
+  </si>
+  <si>
+    <t>World, CHN,</t>
+  </si>
+  <si>
+    <t>standard or economic</t>
+  </si>
+  <si>
+    <t>carbon storage of process CO2, otherwise release to the atmosphere</t>
+  </si>
+  <si>
+    <t>default or float in unit TWh</t>
+  </si>
+  <si>
+    <t>default or float in unit kg CO2eq/kWh</t>
+  </si>
+  <si>
+    <t>default or user-defined</t>
+  </si>
+  <si>
+    <t>scenarios with lower production amount</t>
+  </si>
+  <si>
     <t>World</t>
-  </si>
-  <si>
-    <t>economic</t>
-  </si>
-  <si>
-    <t>cradle-to-gate+EoL</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>SSP2_SPA2_19I_D</t>
-  </si>
-  <si>
-    <t>World, CHN,</t>
-  </si>
-  <si>
-    <t>standard or economic</t>
-  </si>
-  <si>
-    <t>carbon storage of process CO2, otherwise release to the atmosphere</t>
-  </si>
-  <si>
-    <t>default or float in unit TWh</t>
-  </si>
-  <si>
-    <t>default or float in unit kg CO2eq/kWh</t>
-  </si>
-  <si>
-    <t>default or user-defined</t>
-  </si>
-  <si>
-    <t>scenarios with lower production amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +206,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +258,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -278,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -312,9 +327,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,14 +503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -513,7 +531,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -521,29 +539,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -551,15 +569,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -567,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -575,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -583,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -591,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -599,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -607,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -615,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -623,40 +641,40 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -664,18 +682,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -683,18 +701,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -702,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>

--- a/data/raw/user_inputs_scenarios/user_inputs_step6_ccs.xlsx
+++ b/data/raw/user_inputs_scenarios/user_inputs_step6_ccs.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huo\Documents\GitHub\polyLOP\data\raw\user_inputs_scenarios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65440B6F-252C-4B0B-833E-ACD32D3A882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -103,6 +97,9 @@
     <t>scenRCP1p9</t>
   </si>
   <si>
+    <t>World</t>
+  </si>
+  <si>
     <t>economic</t>
   </si>
   <si>
@@ -134,16 +131,13 @@
   </si>
   <si>
     <t>scenarios with lower production amount</t>
-  </si>
-  <si>
-    <t>World</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,21 +200,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +244,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -292,7 +278,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -327,10 +312,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,16 +487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -531,7 +513,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -539,29 +521,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -569,15 +551,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -585,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -593,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -601,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -609,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -617,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -625,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -633,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -641,40 +623,40 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -682,18 +664,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -701,18 +683,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -720,10 +702,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
